--- a/skipper 100.xlsx
+++ b/skipper 100.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Длина загружаемых панелей, Skipper 100 L </t>
   </si>
@@ -51,15 +51,6 @@
     <t xml:space="preserve">Скорость вращения электрошпинделей (мин / макс) </t>
   </si>
   <si>
-    <t xml:space="preserve">Пильная группа диам. 150 мм (сверху и снизу), 1,7 кВт </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пильная группа диам. 160 мм (сверху и снизу), 3,5 кВт </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1+1 (в качестве альтернативы) </t>
-  </si>
-  <si>
     <t xml:space="preserve">7000 / 18000 об/мин </t>
   </si>
   <si>
@@ -94,6 +85,12 @@
   </si>
   <si>
     <t>Наименование параметров</t>
+  </si>
+  <si>
+    <t>Пильная группа (сверху и снизу)</t>
+  </si>
+  <si>
+    <t>1+1</t>
   </si>
 </sst>
 </file>
@@ -411,9 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -423,10 +422,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,23 +505,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/skipper 100.xlsx
+++ b/skipper 100.xlsx
@@ -72,9 +72,6 @@
     <t>8 - 60 мм</t>
   </si>
   <si>
-    <t>70 / 1000 мм</t>
-  </si>
-  <si>
     <t>90 - 2500 мм</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>1+1</t>
+  </si>
+  <si>
+    <t>70 - 1000 мм</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +422,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,10 +510,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
